--- a/MiniProgram_api_test/TestCase/F_code_check.xlsx
+++ b/MiniProgram_api_test/TestCase/F_code_check.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35">
   <si>
     <t>Case_Name</t>
   </si>
@@ -99,13 +99,29 @@
     <t>{"tenantCode":"88000026","type":"0","openid":"1","code":"54d1ab"}</t>
   </si>
   <si>
-    <t>response['data']['validStatus']=False</t>
+    <t>response['data']['validStatus']=True</t>
   </si>
   <si>
     <t>不能使用的F码（创单）</t>
   </si>
   <si>
     <t>{"tenantCode":"88000026","type":"1","openid":"1","code":"54d1ab"}</t>
+  </si>
+  <si>
+    <t>参数传递以及headersDEMO</t>
+  </si>
+  <si>
+    <t>$msg=response['msg'];
+$token=response.headers['x-auth-token']</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>{"x-auth-token":$token}</t>
+  </si>
+  <si>
+    <t>{"tenantCode":"88000026","type":"1","openid":"1","code":"54d1ab","msg":%msg}</t>
   </si>
 </sst>
 </file>
@@ -113,9 +129,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
@@ -141,59 +157,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -202,35 +165,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -240,12 +174,65 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -254,16 +241,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -276,6 +277,21 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -286,187 +302,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -477,6 +493,39 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -495,17 +544,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -517,15 +555,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -556,24 +585,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -585,10 +601,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -597,16 +613,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -615,132 +631,129 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1094,22 +1107,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="12.75" customWidth="1"/>
-    <col min="2" max="2" width="22.625" customWidth="1"/>
-    <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="4" width="12.75" customWidth="1"/>
-    <col min="5" max="5" width="16" customWidth="1"/>
-    <col min="6" max="6" width="31.625" customWidth="1"/>
+    <col min="1" max="1" width="21.375" customWidth="1"/>
+    <col min="2" max="3" width="17.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.625" style="1" customWidth="1"/>
+    <col min="5" max="6" width="17.25" style="1" customWidth="1"/>
     <col min="7" max="7" width="14.875" customWidth="1"/>
-    <col min="8" max="8" width="48.75" customWidth="1"/>
+    <col min="8" max="8" width="25.25" customWidth="1"/>
     <col min="9" max="9" width="26.875" customWidth="1"/>
     <col min="10" max="10" width="33.25" customWidth="1"/>
   </cols>
@@ -1118,28 +1129,28 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
       <c r="J1" t="s">
@@ -1153,23 +1164,23 @@
       <c r="A2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="E2" t="s">
+      <c r="C2" s="3"/>
+      <c r="E2" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="4"/>
+      <c r="J2" s="1"/>
       <c r="K2" t="s">
         <v>17</v>
       </c>
@@ -1178,23 +1189,23 @@
       <c r="A3" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="E3" t="s">
+      <c r="C3" s="3"/>
+      <c r="E3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="4"/>
+      <c r="J3" s="1"/>
       <c r="K3" t="s">
         <v>17</v>
       </c>
@@ -1203,21 +1214,20 @@
       <c r="A4" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="4"/>
-      <c r="E4" t="s">
+      <c r="C4" s="3"/>
+      <c r="E4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K4" t="s">
@@ -1228,74 +1238,122 @@
       <c r="A5" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="4"/>
-      <c r="E5" t="s">
+      <c r="C5" s="3"/>
+      <c r="E5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" ht="27" spans="1:11">
+    <row r="6" ht="40.5" spans="1:11">
       <c r="A6" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="1" t="s">
         <v>27</v>
       </c>
       <c r="K6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" ht="27" spans="1:11">
+    <row r="7" ht="40.5" spans="1:11">
       <c r="A7" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I7" t="s">
-        <v>27</v>
-      </c>
+      <c r="I7" s="1"/>
       <c r="K7" t="s">
         <v>17</v>
       </c>
     </row>
+    <row r="8" ht="40.5" spans="1:11">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" ht="54" spans="1:11">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K9" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E8 E9 E2:E7 E10:E110">
+      <formula1>"get,post"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K116">
+      <formula1>"Y,N"</formula1>
+    </dataValidation>
+  </dataValidations>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="http://we-sit.baozun.com" tooltip="http://we-sit.baozun.com"/>
     <hyperlink ref="B4" r:id="rId1" display="http://we-sit.baozun.com" tooltip="http://we-sit.baozun.com"/>
@@ -1303,6 +1361,8 @@
     <hyperlink ref="B5" r:id="rId1" display="http://we-sit.baozun.com" tooltip="http://we-sit.baozun.com"/>
     <hyperlink ref="B6" r:id="rId1" display="http://we-sit.baozun.com" tooltip="http://we-sit.baozun.com"/>
     <hyperlink ref="B7" r:id="rId1" display="http://we-sit.baozun.com" tooltip="http://we-sit.baozun.com"/>
+    <hyperlink ref="B8" r:id="rId1" display="http://we-sit.baozun.com" tooltip="http://we-sit.baozun.com"/>
+    <hyperlink ref="B9" r:id="rId1" display="http://we-sit.baozun.com" tooltip="http://we-sit.baozun.com"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/MiniProgram_api_test/TestCase/F_code_check.xlsx
+++ b/MiniProgram_api_test/TestCase/F_code_check.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24345" windowHeight="12540"/>
+    <workbookView windowWidth="28245" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48">
   <si>
     <t>Case_Name</t>
   </si>
@@ -51,15 +51,48 @@
     <t>Action</t>
   </si>
   <si>
+    <t>获取code</t>
+  </si>
+  <si>
+    <t>https://servicewechat.com</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>/wxa-dev-logic/jslogin?_r=0.8842716810191438&amp;appid=wx27571b9f1f67888a&amp;platform=0&amp;ext_appid=&amp;os=win&amp;clientversion=1021808101&amp;newticket=WKbXgMFP71jjoDeV0KxOhXIfyTw71Y4B03xEOVIHuuI&amp;os=win&amp;clientversion=1.02.1808101&amp;osversion=10.0.14393</t>
+  </si>
+  <si>
+    <t>{"scope":["snsapi_base"]}</t>
+  </si>
+  <si>
+    <t>$code=response['code']</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>获取token</t>
+  </si>
+  <si>
+    <t>https://stage-mini-cn.iteshop.com</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>/ssi/v100/member/login/findOpenIdByCode?code=$code</t>
+  </si>
+  <si>
+    <t>$x_auth_token=result.headers['x-auth-token']</t>
+  </si>
+  <si>
     <t>F码输入校验</t>
   </si>
   <si>
     <t>http://we-sit.baozun.com</t>
   </si>
   <si>
-    <t>post</t>
-  </si>
-  <si>
     <t>/service-wechat/fcode/check</t>
   </si>
   <si>
@@ -69,22 +102,28 @@
     <t>response['msg']=接口调用成功。;response['data']['validStatus']=True;response['statusCode']=100010</t>
   </si>
   <si>
-    <t>Y</t>
+    <t>$a='s'</t>
   </si>
   <si>
     <t>F码创单校验</t>
   </si>
   <si>
+    <t>x-auth-token=$x_auth_token</t>
+  </si>
+  <si>
     <t>{"tenantCode":"88000026","type":"1","openid":"1","code":"e8aedd"}</t>
   </si>
   <si>
     <t>F码输入过期</t>
   </si>
   <si>
-    <t>{"tenantCode":"88000026","type":"0","openid":"1","code":"fee97f"}</t>
+    <t>{"tenantCode":"88000026","type":"0","openid":测试用例(1),"code":"fee97f"}</t>
   </si>
   <si>
     <t>response['msg']=接口调用成功。;response['data']['validStatus']=False;response['statusCode']=100010;response['data']['msg']=F码已过期</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
   <si>
     <t>F码创单过期</t>
@@ -115,13 +154,13 @@
 $token=response.headers['x-auth-token']</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>{"x-auth-token":$token}</t>
-  </si>
-  <si>
     <t>{"tenantCode":"88000026","type":"1","openid":"1","code":"54d1ab","msg":%msg}</t>
+  </si>
+  <si>
+    <t>用户编号</t>
+  </si>
+  <si>
+    <t>手机号</t>
   </si>
 </sst>
 </file>
@@ -129,13 +168,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -144,9 +183,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="微软雅黑"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -157,6 +216,104 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -165,39 +322,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -211,73 +337,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -285,13 +344,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -302,13 +354,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -320,7 +432,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -332,157 +468,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -499,8 +551,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -520,30 +572,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -555,15 +583,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -585,6 +604,39 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -601,10 +653,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -613,150 +665,174 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1107,262 +1183,653 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="21.375" customWidth="1"/>
-    <col min="2" max="3" width="17.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.625" style="1" customWidth="1"/>
-    <col min="5" max="6" width="17.25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.625" customWidth="1"/>
+    <col min="2" max="2" width="21.375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="17.25" style="3" customWidth="1"/>
+    <col min="4" max="4" width="21.75" style="3" customWidth="1"/>
+    <col min="5" max="5" width="17.25" style="3" customWidth="1"/>
+    <col min="6" max="6" width="27.125" style="3" customWidth="1"/>
     <col min="7" max="7" width="14.875" customWidth="1"/>
-    <col min="8" max="8" width="25.25" customWidth="1"/>
+    <col min="8" max="8" width="39.375" customWidth="1"/>
     <col min="9" max="9" width="26.875" customWidth="1"/>
     <col min="10" max="10" width="33.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:11">
-      <c r="A1" t="s">
+    <row r="1" s="2" customFormat="1" ht="16.5" spans="1:11">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" ht="81" spans="1:11">
-      <c r="A2" t="s">
+    <row r="2" s="2" customFormat="1" ht="148.5" spans="1:11">
+      <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="E2" s="1" t="s">
+      <c r="C2" s="8"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="G2" s="2"/>
+      <c r="H2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="10"/>
+      <c r="J2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="1"/>
-      <c r="K2" t="s">
+      <c r="K2" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" ht="81" spans="1:11">
-      <c r="A3" t="s">
+    <row r="3" s="2" customFormat="1" ht="49.5" spans="1:11">
+      <c r="A3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="E3" s="1" t="s">
+      <c r="B3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" s="2" customFormat="1" ht="66" spans="1:11">
+      <c r="A4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="11"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="1"/>
-      <c r="K3" t="s">
+      <c r="F4" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" ht="94.5" spans="1:11">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="E4" s="1" t="s">
+    <row r="5" s="2" customFormat="1" ht="66" spans="1:11">
+      <c r="A5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="11"/>
+      <c r="D5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="F5" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="10"/>
+      <c r="K5" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" ht="94.5" spans="1:11">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="E5" s="1" t="s">
+    <row r="6" s="2" customFormat="1" ht="99" spans="1:11">
+      <c r="A6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="11"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="1" t="s">
+      <c r="F6" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" s="2" customFormat="1" ht="99" spans="1:11">
+      <c r="A7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" ht="40.5" spans="1:11">
-      <c r="A6" t="s">
+      <c r="C7" s="11"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="H7" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" s="2" customFormat="1" ht="33" spans="1:11">
+      <c r="A8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" ht="40.5" spans="1:11">
-      <c r="A7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="1" t="s">
+      <c r="F8" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" s="2" customFormat="1" ht="33" spans="1:11">
+      <c r="A9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I7" s="1"/>
-      <c r="K7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" ht="40.5" spans="1:11">
-      <c r="A8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="1" t="s">
+      <c r="F9" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I9" s="10"/>
+      <c r="K9" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" s="2" customFormat="1" ht="33" spans="1:11">
+      <c r="A10" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" ht="54" spans="1:11">
-      <c r="A9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="1" t="s">
+      <c r="F10" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" s="2" customFormat="1" ht="33" spans="1:11">
+      <c r="A11" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K9" t="s">
-        <v>32</v>
-      </c>
+      <c r="F11" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" s="2" customFormat="1" ht="16.5" spans="2:6">
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+    </row>
+    <row r="13" s="2" customFormat="1" ht="16.5" spans="2:6">
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+    </row>
+    <row r="14" s="2" customFormat="1" ht="16.5" spans="2:6">
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+    </row>
+    <row r="15" s="2" customFormat="1" ht="16.5" spans="2:6">
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+    </row>
+    <row r="16" s="2" customFormat="1" ht="16.5" spans="2:6">
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+    </row>
+    <row r="17" s="2" customFormat="1" ht="16.5" spans="2:6">
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+    </row>
+    <row r="18" s="2" customFormat="1" ht="16.5" spans="2:6">
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+    </row>
+    <row r="19" s="2" customFormat="1" ht="16.5" spans="2:6">
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+    </row>
+    <row r="20" s="2" customFormat="1" ht="16.5" spans="2:6">
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+    </row>
+    <row r="21" s="2" customFormat="1" ht="16.5" spans="2:6">
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+    </row>
+    <row r="22" s="2" customFormat="1" ht="16.5" spans="2:6">
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+    </row>
+    <row r="23" s="2" customFormat="1" ht="16.5" spans="2:6">
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+    </row>
+    <row r="24" s="2" customFormat="1" ht="16.5" spans="2:6">
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+    </row>
+    <row r="25" s="2" customFormat="1" ht="16.5" spans="2:6">
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+    </row>
+    <row r="26" s="2" customFormat="1" ht="16.5" spans="2:6">
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+    </row>
+    <row r="27" s="2" customFormat="1" ht="16.5" spans="2:6">
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+    </row>
+    <row r="28" s="2" customFormat="1" ht="16.5" spans="2:6">
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+    </row>
+    <row r="29" s="2" customFormat="1" ht="16.5" spans="2:6">
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+    </row>
+    <row r="30" s="2" customFormat="1" ht="16.5" spans="2:6">
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+    </row>
+    <row r="31" s="2" customFormat="1" ht="16.5" spans="2:6">
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+    </row>
+    <row r="32" s="2" customFormat="1" ht="16.5" spans="2:6">
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+    </row>
+    <row r="33" s="2" customFormat="1" ht="16.5" spans="2:6">
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+    </row>
+    <row r="34" s="2" customFormat="1" ht="16.5" spans="2:6">
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+    </row>
+    <row r="35" s="2" customFormat="1" ht="16.5" spans="2:6">
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+    </row>
+    <row r="36" s="2" customFormat="1" ht="16.5" spans="2:6">
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+    </row>
+    <row r="37" s="2" customFormat="1" ht="16.5" spans="2:6">
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+    </row>
+    <row r="38" s="2" customFormat="1" ht="16.5" spans="2:6">
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+    </row>
+    <row r="39" s="2" customFormat="1" ht="16.5" spans="2:6">
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+    </row>
+    <row r="40" s="2" customFormat="1" ht="16.5" spans="2:6">
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+    </row>
+    <row r="41" s="2" customFormat="1" ht="16.5" spans="2:6">
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+    </row>
+    <row r="42" s="2" customFormat="1" ht="16.5" spans="2:6">
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+    </row>
+    <row r="43" s="2" customFormat="1" ht="16.5" spans="2:6">
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+    </row>
+    <row r="44" s="2" customFormat="1" ht="16.5" spans="2:6">
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+    </row>
+    <row r="45" s="2" customFormat="1" ht="16.5" spans="2:6">
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+    </row>
+    <row r="46" s="2" customFormat="1" ht="16.5" spans="2:6">
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+    </row>
+    <row r="47" s="2" customFormat="1" ht="16.5" spans="2:6">
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+    </row>
+    <row r="48" s="2" customFormat="1" ht="16.5" spans="2:6">
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+    </row>
+    <row r="49" s="2" customFormat="1" ht="16.5" spans="2:6">
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+    </row>
+    <row r="50" s="2" customFormat="1" ht="16.5" spans="2:6">
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+    </row>
+    <row r="51" s="2" customFormat="1" ht="16.5" spans="2:6">
+      <c r="B51" s="10"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+    </row>
+    <row r="52" s="2" customFormat="1" ht="16.5" spans="2:6">
+      <c r="B52" s="10"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+    </row>
+    <row r="53" s="2" customFormat="1" ht="16.5" spans="2:6">
+      <c r="B53" s="10"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+    </row>
+    <row r="54" s="2" customFormat="1" ht="16.5" spans="2:6">
+      <c r="B54" s="10"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
+    </row>
+    <row r="55" s="2" customFormat="1" ht="16.5" spans="2:6">
+      <c r="B55" s="10"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
+    </row>
+    <row r="56" s="2" customFormat="1" ht="16.5" spans="2:6">
+      <c r="B56" s="10"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="10"/>
+    </row>
+    <row r="57" s="2" customFormat="1" ht="16.5" spans="2:6">
+      <c r="B57" s="10"/>
+      <c r="C57" s="10"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="10"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E8 E9 E2:E7 E10:E110">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K4 K5 K6:K9 K10:K118">
+      <formula1>"Y,N"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E10 E11 E4:E9 E12:E112">
       <formula1>"get,post"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K116">
-      <formula1>"Y,N"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="http://we-sit.baozun.com" tooltip="http://we-sit.baozun.com"/>
     <hyperlink ref="B4" r:id="rId1" display="http://we-sit.baozun.com" tooltip="http://we-sit.baozun.com"/>
-    <hyperlink ref="B3" r:id="rId1" display="http://we-sit.baozun.com" tooltip="http://we-sit.baozun.com"/>
+    <hyperlink ref="B6" r:id="rId1" display="http://we-sit.baozun.com" tooltip="http://we-sit.baozun.com"/>
     <hyperlink ref="B5" r:id="rId1" display="http://we-sit.baozun.com" tooltip="http://we-sit.baozun.com"/>
-    <hyperlink ref="B6" r:id="rId1" display="http://we-sit.baozun.com" tooltip="http://we-sit.baozun.com"/>
     <hyperlink ref="B7" r:id="rId1" display="http://we-sit.baozun.com" tooltip="http://we-sit.baozun.com"/>
     <hyperlink ref="B8" r:id="rId1" display="http://we-sit.baozun.com" tooltip="http://we-sit.baozun.com"/>
     <hyperlink ref="B9" r:id="rId1" display="http://we-sit.baozun.com" tooltip="http://we-sit.baozun.com"/>
+    <hyperlink ref="B10" r:id="rId1" display="http://we-sit.baozun.com" tooltip="http://we-sit.baozun.com"/>
+    <hyperlink ref="B11" r:id="rId1" display="http://we-sit.baozun.com" tooltip="http://we-sit.baozun.com"/>
+    <hyperlink ref="B2" r:id="rId2" display="https://servicewechat.com" tooltip="https://servicewechat.com"/>
+    <hyperlink ref="B3" r:id="rId3" display="https://stage-mini-cn.iteshop.com"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1373,14 +1840,146 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="16.125" customWidth="1"/>
+    <col min="2" max="2" width="17.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1">
+        <v>88000026</v>
+      </c>
+      <c r="B2">
+        <v>13813984405</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1">
+        <v>88000027</v>
+      </c>
+      <c r="B3">
+        <v>13813984406</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1">
+        <v>88000028</v>
+      </c>
+      <c r="B4">
+        <v>13813984407</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1">
+        <v>88000029</v>
+      </c>
+      <c r="B5">
+        <v>13813984408</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1">
+        <v>88000030</v>
+      </c>
+      <c r="B6">
+        <v>13813984409</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1">
+        <v>88000031</v>
+      </c>
+      <c r="B7">
+        <v>13813984410</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1">
+        <v>88000032</v>
+      </c>
+      <c r="B8">
+        <v>13813984411</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1">
+        <v>88000033</v>
+      </c>
+      <c r="B9">
+        <v>13813984412</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1">
+        <v>88000034</v>
+      </c>
+      <c r="B10">
+        <v>13813984413</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1">
+        <v>88000035</v>
+      </c>
+      <c r="B11">
+        <v>13813984414</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1">
+        <v>88000036</v>
+      </c>
+      <c r="B12">
+        <v>13813984415</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1">
+        <v>88000037</v>
+      </c>
+      <c r="B13">
+        <v>13813984416</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1">
+        <v>88000038</v>
+      </c>
+      <c r="B14">
+        <v>13813984417</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="1">
+        <v>88000039</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="1">
+        <v>88000040</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="1">
+        <v>88000041</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/MiniProgram_api_test/TestCase/F_code_check.xlsx
+++ b/MiniProgram_api_test/TestCase/F_code_check.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47">
   <si>
     <t>Case_Name</t>
   </si>
@@ -96,13 +96,10 @@
     <t>/service-wechat/fcode/check</t>
   </si>
   <si>
-    <t>{"tenantCode":"88000026","type":"0","openid":"1","code":"e8aedd"}</t>
+    <t>{"tenantCode":"88000026","type":"0","openid":"1","code":$code}</t>
   </si>
   <si>
     <t>response['msg']=接口调用成功。;response['data']['validStatus']=True;response['statusCode']=100010</t>
-  </si>
-  <si>
-    <t>$a='s'</t>
   </si>
   <si>
     <t>F码创单校验</t>
@@ -168,8 +165,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
@@ -201,8 +198,9 @@
       <charset val="0"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,6 +215,58 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -224,16 +274,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -245,25 +296,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -275,75 +335,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -354,187 +351,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -548,41 +545,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -605,8 +578,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -620,16 +608,25 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -653,10 +650,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -665,16 +662,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -686,116 +683,116 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -808,9 +805,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -822,15 +816,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1185,8 +1170,8 @@
   <sheetPr/>
   <dimension ref="A1:K57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1204,611 +1189,605 @@
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="1" ht="16.5" spans="1:11">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" ht="148.5" spans="1:11">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="4" t="s">
+      <c r="C2" s="7"/>
+      <c r="E2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="10"/>
-      <c r="J2" s="5" t="s">
+      <c r="I2" s="4"/>
+      <c r="J2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" ht="49.5" spans="1:11">
-      <c r="A3" s="4" t="s">
+    <row r="3" s="2" customFormat="1" ht="33" spans="1:11">
+      <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="4" t="s">
+      <c r="C3" s="7"/>
+      <c r="E3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="5" t="s">
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" ht="66" spans="1:11">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="5" t="s">
+      <c r="C4" s="6"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="4"/>
+      <c r="K4" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" ht="66" spans="1:11">
+      <c r="A5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="B5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="4"/>
+      <c r="K5" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" ht="66" spans="1:11">
-      <c r="A5" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="9" t="s">
+    <row r="6" s="2" customFormat="1" ht="99" spans="1:11">
+      <c r="A6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="5" t="s">
+      <c r="C6" s="6"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="J5" s="10"/>
-      <c r="K5" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" s="2" customFormat="1" ht="99" spans="1:11">
-      <c r="A6" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="I6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" s="2" customFormat="1" ht="99" spans="1:11">
+      <c r="A7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="5" t="s">
+      <c r="C7" s="6"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F7" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="K7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" s="2" customFormat="1" ht="99" spans="1:11">
-      <c r="A7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="9" t="s">
+    </row>
+    <row r="8" s="2" customFormat="1" ht="33" spans="1:11">
+      <c r="A8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="5" t="s">
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F8" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="I7" s="5" t="s">
+      <c r="H8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K8" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="K7" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" s="2" customFormat="1" ht="33" spans="1:11">
-      <c r="A8" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="9" t="s">
+    </row>
+    <row r="9" s="2" customFormat="1" ht="33" spans="1:11">
+      <c r="A9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="5" t="s">
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F9" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H8" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" s="2" customFormat="1" ht="33" spans="1:11">
-      <c r="A9" s="4" t="s">
+      <c r="H9" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="I9" s="4"/>
+      <c r="K9" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" s="2" customFormat="1" ht="33" spans="1:11">
+      <c r="A10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="5" t="s">
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F10" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="J10" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" s="2" customFormat="1" ht="33" spans="1:11">
+      <c r="A11" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I9" s="10"/>
-      <c r="K9" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" s="2" customFormat="1" ht="33" spans="1:11">
-      <c r="A10" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" s="9" t="s">
+      <c r="B11" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="5" t="s">
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F11" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="J10" s="5" t="s">
+      <c r="H11" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="K10" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" s="2" customFormat="1" ht="33" spans="1:11">
-      <c r="A11" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>35</v>
+      <c r="K11" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" ht="16.5" spans="2:6">
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
     </row>
     <row r="13" s="2" customFormat="1" ht="16.5" spans="2:6">
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
     </row>
     <row r="14" s="2" customFormat="1" ht="16.5" spans="2:6">
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
     </row>
     <row r="15" s="2" customFormat="1" ht="16.5" spans="2:6">
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
     </row>
     <row r="16" s="2" customFormat="1" ht="16.5" spans="2:6">
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
     </row>
     <row r="17" s="2" customFormat="1" ht="16.5" spans="2:6">
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
     </row>
     <row r="18" s="2" customFormat="1" ht="16.5" spans="2:6">
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
     </row>
     <row r="19" s="2" customFormat="1" ht="16.5" spans="2:6">
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
     </row>
     <row r="20" s="2" customFormat="1" ht="16.5" spans="2:6">
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
     </row>
     <row r="21" s="2" customFormat="1" ht="16.5" spans="2:6">
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
     </row>
     <row r="22" s="2" customFormat="1" ht="16.5" spans="2:6">
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
     </row>
     <row r="23" s="2" customFormat="1" ht="16.5" spans="2:6">
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
     </row>
     <row r="24" s="2" customFormat="1" ht="16.5" spans="2:6">
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
     </row>
     <row r="25" s="2" customFormat="1" ht="16.5" spans="2:6">
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
     </row>
     <row r="26" s="2" customFormat="1" ht="16.5" spans="2:6">
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
     </row>
     <row r="27" s="2" customFormat="1" ht="16.5" spans="2:6">
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
     </row>
     <row r="28" s="2" customFormat="1" ht="16.5" spans="2:6">
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
     </row>
     <row r="29" s="2" customFormat="1" ht="16.5" spans="2:6">
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
     </row>
     <row r="30" s="2" customFormat="1" ht="16.5" spans="2:6">
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
     </row>
     <row r="31" s="2" customFormat="1" ht="16.5" spans="2:6">
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
     </row>
     <row r="32" s="2" customFormat="1" ht="16.5" spans="2:6">
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
     </row>
     <row r="33" s="2" customFormat="1" ht="16.5" spans="2:6">
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
     </row>
     <row r="34" s="2" customFormat="1" ht="16.5" spans="2:6">
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
     </row>
     <row r="35" s="2" customFormat="1" ht="16.5" spans="2:6">
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
     </row>
     <row r="36" s="2" customFormat="1" ht="16.5" spans="2:6">
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
     </row>
     <row r="37" s="2" customFormat="1" ht="16.5" spans="2:6">
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
     </row>
     <row r="38" s="2" customFormat="1" ht="16.5" spans="2:6">
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
     </row>
     <row r="39" s="2" customFormat="1" ht="16.5" spans="2:6">
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
     </row>
     <row r="40" s="2" customFormat="1" ht="16.5" spans="2:6">
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
     </row>
     <row r="41" s="2" customFormat="1" ht="16.5" spans="2:6">
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
     </row>
     <row r="42" s="2" customFormat="1" ht="16.5" spans="2:6">
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
     </row>
     <row r="43" s="2" customFormat="1" ht="16.5" spans="2:6">
-      <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
     </row>
     <row r="44" s="2" customFormat="1" ht="16.5" spans="2:6">
-      <c r="B44" s="10"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
     </row>
     <row r="45" s="2" customFormat="1" ht="16.5" spans="2:6">
-      <c r="B45" s="10"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
     </row>
     <row r="46" s="2" customFormat="1" ht="16.5" spans="2:6">
-      <c r="B46" s="10"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
     </row>
     <row r="47" s="2" customFormat="1" ht="16.5" spans="2:6">
-      <c r="B47" s="10"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
     </row>
     <row r="48" s="2" customFormat="1" ht="16.5" spans="2:6">
-      <c r="B48" s="10"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
     </row>
     <row r="49" s="2" customFormat="1" ht="16.5" spans="2:6">
-      <c r="B49" s="10"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
     </row>
     <row r="50" s="2" customFormat="1" ht="16.5" spans="2:6">
-      <c r="B50" s="10"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
     </row>
     <row r="51" s="2" customFormat="1" ht="16.5" spans="2:6">
-      <c r="B51" s="10"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
     </row>
     <row r="52" s="2" customFormat="1" ht="16.5" spans="2:6">
-      <c r="B52" s="10"/>
-      <c r="C52" s="10"/>
-      <c r="D52" s="10"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
     </row>
     <row r="53" s="2" customFormat="1" ht="16.5" spans="2:6">
-      <c r="B53" s="10"/>
-      <c r="C53" s="10"/>
-      <c r="D53" s="10"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="10"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
     </row>
     <row r="54" s="2" customFormat="1" ht="16.5" spans="2:6">
-      <c r="B54" s="10"/>
-      <c r="C54" s="10"/>
-      <c r="D54" s="10"/>
-      <c r="E54" s="10"/>
-      <c r="F54" s="10"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
     </row>
     <row r="55" s="2" customFormat="1" ht="16.5" spans="2:6">
-      <c r="B55" s="10"/>
-      <c r="C55" s="10"/>
-      <c r="D55" s="10"/>
-      <c r="E55" s="10"/>
-      <c r="F55" s="10"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
     </row>
     <row r="56" s="2" customFormat="1" ht="16.5" spans="2:6">
-      <c r="B56" s="10"/>
-      <c r="C56" s="10"/>
-      <c r="D56" s="10"/>
-      <c r="E56" s="10"/>
-      <c r="F56" s="10"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
     </row>
     <row r="57" s="2" customFormat="1" ht="16.5" spans="2:6">
-      <c r="B57" s="10"/>
-      <c r="C57" s="10"/>
-      <c r="D57" s="10"/>
-      <c r="E57" s="10"/>
-      <c r="F57" s="10"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
     </row>
   </sheetData>
   <dataValidations count="2">
@@ -1854,10 +1833,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" t="s">
         <v>46</v>
-      </c>
-      <c r="B1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:2">
